--- a/StructureDefinition-ext-R5-TestReport.set.act.ass.requirement.xlsx
+++ b/StructureDefinition-ext-R5-TestReport.set.act.ass.requirement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `TestReport.setup.action.assert.requirement` 0..* `BackboneElement`
 Following are the generation technical comments:
 Element `TestReport.setup.action.assert.requirement` is part of an existing definition because parent element `TestReport.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
-Element `TestReport.setup.action.assert.requirement` is mapped to FHIR R4 structure `TestReport`, but has no target element specified.</t>
+Element `TestReport.setup.action.assert.requirement` is will have a context of TestReport.setup.action.assert based on following the parent source element upwards and mapping to `TestReport`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:TestReport.setup.action.assert</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>Element `TestReport.setup.action.assert.requirement.link[x]` is part of an existing definition because parent element `TestReport.setup.action.assert.requirement` requires a cross-version extension.
-Element `TestReport.setup.action.assert.requirement.link[x]` is mapped to FHIR R4 structure `TestReport`, but has no target element specified.</t>
+Element `TestReport.setup.action.assert.requirement.link[x]` is will have a context of TestReport.setup.action.assert based on following the parent source element upwards and mapping to `TestReport`.</t>
   </si>
   <si>
     <t>Extension.extension:link.id</t>
@@ -760,7 +760,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="159.609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="162.90625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
